--- a/results/dataout.xlsx
+++ b/results/dataout.xlsx
@@ -1283,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J151" sqref="J151"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A49" zoomScale="110" zoomScaleNormal="100" zoomScaleSheetLayoutView="110" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1466,6 +1466,9 @@
       <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I7" s="1">
+        <v>5</v>
+      </c>
       <c r="J7" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,6 +1515,9 @@
       <c r="H9" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I9" s="1">
+        <v>6</v>
+      </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1525,6 +1531,9 @@
       </c>
       <c r="H10" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>23</v>
@@ -1579,6 +1588,9 @@
       <c r="H12" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1624,6 +1636,9 @@
       </c>
       <c r="H14" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I14" s="1">
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>45</v>
@@ -1672,6 +1687,9 @@
       <c r="H16" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I16" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1756,6 +1774,9 @@
       </c>
       <c r="H20" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I20" s="1">
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1798,6 +1819,9 @@
       <c r="H22" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I22" s="1">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1962,6 +1986,9 @@
       <c r="H29" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I29" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -2024,6 +2051,9 @@
       <c r="H32" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I32" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A33" s="13"/>
@@ -2038,6 +2068,9 @@
       <c r="H33" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I33" s="1">
+        <v>26</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -2120,6 +2153,9 @@
       <c r="H37" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I37" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G38" s="28"/>
@@ -2223,10 +2259,16 @@
       <c r="H44" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="I44" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G45" s="28" t="s">
         <v>93</v>
+      </c>
+      <c r="I45" s="1">
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -2269,6 +2311,9 @@
       <c r="H47" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I47" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="13"/>
@@ -2283,6 +2328,9 @@
       <c r="H48" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I48" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
@@ -2350,6 +2398,9 @@
       <c r="H51" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I51" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
@@ -2412,6 +2463,9 @@
       <c r="H54" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I54" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
@@ -2445,6 +2499,9 @@
       </c>
       <c r="H56" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I56" s="1">
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
@@ -2487,7 +2544,9 @@
       <c r="H58" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I58" s="1"/>
+      <c r="I58" s="1">
+        <v>38</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
@@ -2522,6 +2581,9 @@
       <c r="H60" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I60" s="1">
+        <v>39</v>
+      </c>
     </row>
     <row r="61" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
@@ -2582,6 +2644,9 @@
       </c>
       <c r="H63" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I63" s="1">
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2640,6 +2705,9 @@
       <c r="H66" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I66" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G67" s="28" t="s">
@@ -2648,6 +2716,9 @@
       <c r="H67" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I67" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G68" s="28" t="s">
@@ -2656,6 +2727,9 @@
       <c r="H68" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I68" s="1">
+        <v>43</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G69" s="28" t="s">
@@ -2663,6 +2737,9 @@
       </c>
       <c r="H69" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I69" s="1">
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -2717,6 +2794,9 @@
       </c>
       <c r="H72" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I72" s="1">
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -2841,6 +2921,9 @@
       <c r="H80" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I80" s="1">
+        <v>48</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G81" s="28" t="s">
@@ -2849,6 +2932,9 @@
       <c r="H81" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I81" s="1">
+        <v>48</v>
+      </c>
     </row>
     <row r="82" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="G82" s="28" t="s">
@@ -2856,6 +2942,9 @@
       </c>
       <c r="H82" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="I82" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -2913,6 +3002,9 @@
       </c>
       <c r="H85" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I85" s="1">
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -3004,6 +3096,9 @@
       <c r="H89" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I89" s="1">
+        <v>54</v>
+      </c>
     </row>
     <row r="90" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A90" s="13"/>
@@ -3018,6 +3113,9 @@
       <c r="H90" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I90" s="1">
+        <v>54</v>
+      </c>
     </row>
     <row r="91" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
@@ -3082,6 +3180,9 @@
       <c r="H93" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I93" s="1">
+        <v>57</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
@@ -3144,6 +3245,9 @@
       <c r="H96" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="I96" s="1">
+        <v>59</v>
+      </c>
     </row>
     <row r="97" spans="1:9" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
@@ -3211,6 +3315,9 @@
       <c r="H99" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I99" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="13"/>
@@ -3225,6 +3332,9 @@
       <c r="H100" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I100" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="13"/>
@@ -3239,6 +3349,9 @@
       <c r="H101" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I101" s="1">
+        <v>61</v>
+      </c>
     </row>
     <row r="102" spans="1:9" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
@@ -3306,6 +3419,9 @@
       <c r="H104" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I104" s="1">
+        <v>64</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
@@ -3663,6 +3779,9 @@
       <c r="H119" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="I119" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="120" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A120" s="13"/>
@@ -3677,6 +3796,9 @@
       <c r="H120" s="15" t="s">
         <v>31</v>
       </c>
+      <c r="I120" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="121" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A121" s="13"/>
@@ -3691,6 +3813,9 @@
       <c r="H121" s="15" t="s">
         <v>30</v>
       </c>
+      <c r="I121" s="1">
+        <v>79</v>
+      </c>
     </row>
     <row r="122" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
@@ -3758,6 +3883,9 @@
       <c r="H124" s="15" t="s">
         <v>39</v>
       </c>
+      <c r="I124" s="1">
+        <v>82</v>
+      </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
@@ -3772,6 +3900,9 @@
       <c r="H125" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I125" s="1">
+        <v>82</v>
+      </c>
     </row>
     <row r="126" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
@@ -3802,6 +3933,9 @@
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G127" s="28" t="s">
         <v>91</v>
+      </c>
+      <c r="I127" s="1">
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
@@ -3892,6 +4026,9 @@
       <c r="H131" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I131" s="1">
+        <v>87</v>
+      </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
@@ -3954,6 +4091,9 @@
       <c r="H134" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="I134" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
@@ -3984,6 +4124,9 @@
       </c>
       <c r="H136" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="I136" s="1">
+        <v>93</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -4042,6 +4185,9 @@
       <c r="H139" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I139" s="1">
+        <v>95</v>
+      </c>
     </row>
     <row r="140" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="G140" s="28" t="s">
@@ -4049,6 +4195,9 @@
       </c>
       <c r="H140" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="I140" s="1">
+        <v>95</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
